--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna1-Epha7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna1-Epha7.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>21.78783233333333</v>
+        <v>17.919643</v>
       </c>
       <c r="H2">
-        <v>65.363497</v>
+        <v>53.75892899999999</v>
       </c>
       <c r="I2">
-        <v>0.9024488799587679</v>
+        <v>0.8982899767221961</v>
       </c>
       <c r="J2">
-        <v>0.9024488799587679</v>
+        <v>0.8982899767221962</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3173666666666666</v>
+        <v>0.05661333333333334</v>
       </c>
       <c r="N2">
-        <v>0.9520999999999999</v>
+        <v>0.16984</v>
       </c>
       <c r="O2">
-        <v>0.1863268828340317</v>
+        <v>0.0204119846136133</v>
       </c>
       <c r="P2">
-        <v>0.1863268828340316</v>
+        <v>0.02041198461361329</v>
       </c>
       <c r="Q2">
-        <v>6.91473172152222</v>
+        <v>1.014490722373333</v>
       </c>
       <c r="R2">
-        <v>62.23258549369999</v>
+        <v>9.130416501360001</v>
       </c>
       <c r="S2">
-        <v>0.1681504867197805</v>
+        <v>0.01833588118341651</v>
       </c>
       <c r="T2">
-        <v>0.1681504867197804</v>
+        <v>0.01833588118341651</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>21.78783233333333</v>
+        <v>17.919643</v>
       </c>
       <c r="H3">
-        <v>65.363497</v>
+        <v>53.75892899999999</v>
       </c>
       <c r="I3">
-        <v>0.9024488799587679</v>
+        <v>0.8982899767221961</v>
       </c>
       <c r="J3">
-        <v>0.9024488799587679</v>
+        <v>0.8982899767221962</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,25 +617,25 @@
         <v>0.2780386666666667</v>
       </c>
       <c r="N3">
-        <v>0.834116</v>
+        <v>0.8341160000000001</v>
       </c>
       <c r="O3">
-        <v>0.1632373009158609</v>
+        <v>0.100247073468963</v>
       </c>
       <c r="P3">
-        <v>0.1632373009158609</v>
+        <v>0.1002470734689629</v>
       </c>
       <c r="Q3">
-        <v>6.057859851516888</v>
+        <v>4.982353646862666</v>
       </c>
       <c r="R3">
-        <v>54.520738663652</v>
+        <v>44.841182821764</v>
       </c>
       <c r="S3">
-        <v>0.147313319379011</v>
+        <v>0.09005094129290302</v>
       </c>
       <c r="T3">
-        <v>0.147313319379011</v>
+        <v>0.09005094129290302</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>21.78783233333333</v>
+        <v>17.919643</v>
       </c>
       <c r="H4">
-        <v>65.363497</v>
+        <v>53.75892899999999</v>
       </c>
       <c r="I4">
-        <v>0.9024488799587679</v>
+        <v>0.8982899767221961</v>
       </c>
       <c r="J4">
-        <v>0.9024488799587679</v>
+        <v>0.8982899767221962</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.107873666666667</v>
+        <v>2.438882</v>
       </c>
       <c r="N4">
-        <v>3.323621</v>
+        <v>7.316646</v>
       </c>
       <c r="O4">
-        <v>0.6504358162501074</v>
+        <v>0.8793409419174237</v>
       </c>
       <c r="P4">
-        <v>0.6504358162501074</v>
+        <v>0.8793409419174237</v>
       </c>
       <c r="Q4">
-        <v>24.13816569584855</v>
+        <v>43.70389475912599</v>
       </c>
       <c r="R4">
-        <v>217.243491262637</v>
+        <v>393.335052832134</v>
       </c>
       <c r="S4">
-        <v>0.5869850738599763</v>
+        <v>0.7899031542458765</v>
       </c>
       <c r="T4">
-        <v>0.5869850738599763</v>
+        <v>0.7899031542458766</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>4.077019</v>
       </c>
       <c r="I5">
-        <v>0.05628984676448105</v>
+        <v>0.06812533974785755</v>
       </c>
       <c r="J5">
-        <v>0.05628984676448104</v>
+        <v>0.06812533974785755</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3173666666666666</v>
+        <v>0.05661333333333334</v>
       </c>
       <c r="N5">
-        <v>0.9520999999999999</v>
+        <v>0.16984</v>
       </c>
       <c r="O5">
-        <v>0.1863268828340317</v>
+        <v>0.0204119846136133</v>
       </c>
       <c r="P5">
-        <v>0.1863268828340316</v>
+        <v>0.02041198461361329</v>
       </c>
       <c r="Q5">
-        <v>0.4313033099888888</v>
+        <v>0.07693787855111112</v>
       </c>
       <c r="R5">
-        <v>3.8817297899</v>
+        <v>0.69244090696</v>
       </c>
       <c r="S5">
-        <v>0.01048831168283106</v>
+        <v>0.001390573386730447</v>
       </c>
       <c r="T5">
-        <v>0.01048831168283105</v>
+        <v>0.001390573386730446</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>4.077019</v>
       </c>
       <c r="I6">
-        <v>0.05628984676448105</v>
+        <v>0.06812533974785755</v>
       </c>
       <c r="J6">
-        <v>0.05628984676448104</v>
+        <v>0.06812533974785755</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,25 +803,25 @@
         <v>0.2780386666666667</v>
       </c>
       <c r="N6">
-        <v>0.834116</v>
+        <v>0.8341160000000001</v>
       </c>
       <c r="O6">
-        <v>0.1632373009158609</v>
+        <v>0.100247073468963</v>
       </c>
       <c r="P6">
-        <v>0.1632373009158609</v>
+        <v>0.1002470734689629</v>
       </c>
       <c r="Q6">
-        <v>0.3778563089115555</v>
+        <v>0.3778563089115556</v>
       </c>
       <c r="R6">
         <v>3.400706780204</v>
       </c>
       <c r="S6">
-        <v>0.009188602654801292</v>
+        <v>0.006829365938801538</v>
       </c>
       <c r="T6">
-        <v>0.00918860265480129</v>
+        <v>0.006829365938801537</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>4.077019</v>
       </c>
       <c r="I7">
-        <v>0.05628984676448105</v>
+        <v>0.06812533974785755</v>
       </c>
       <c r="J7">
-        <v>0.05628984676448104</v>
+        <v>0.06812533974785755</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.107873666666667</v>
+        <v>2.438882</v>
       </c>
       <c r="N7">
-        <v>3.323621</v>
+        <v>7.316646</v>
       </c>
       <c r="O7">
-        <v>0.6504358162501074</v>
+        <v>0.8793409419174237</v>
       </c>
       <c r="P7">
-        <v>0.6504358162501074</v>
+        <v>0.8793409419174237</v>
       </c>
       <c r="Q7">
-        <v>1.505607329533222</v>
+        <v>3.314456084252666</v>
       </c>
       <c r="R7">
-        <v>13.550465965799</v>
+        <v>29.830104758274</v>
       </c>
       <c r="S7">
-        <v>0.0366129324268487</v>
+        <v>0.05990540042232556</v>
       </c>
       <c r="T7">
-        <v>0.03661293242684869</v>
+        <v>0.05990540042232556</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9961713333333333</v>
+        <v>0.669968</v>
       </c>
       <c r="H8">
-        <v>2.988514</v>
+        <v>2.009904</v>
       </c>
       <c r="I8">
-        <v>0.04126127327675105</v>
+        <v>0.03358468352994624</v>
       </c>
       <c r="J8">
-        <v>0.04126127327675105</v>
+        <v>0.03358468352994624</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3173666666666666</v>
+        <v>0.05661333333333334</v>
       </c>
       <c r="N8">
-        <v>0.9520999999999999</v>
+        <v>0.16984</v>
       </c>
       <c r="O8">
-        <v>0.1863268828340317</v>
+        <v>0.0204119846136133</v>
       </c>
       <c r="P8">
-        <v>0.1863268828340316</v>
+        <v>0.02041198461361329</v>
       </c>
       <c r="Q8">
-        <v>0.3161515754888888</v>
+        <v>0.03792912170666667</v>
       </c>
       <c r="R8">
-        <v>2.8453641794</v>
+        <v>0.3413620953600001</v>
       </c>
       <c r="S8">
-        <v>0.007688084431420156</v>
+        <v>0.0006855300434663344</v>
       </c>
       <c r="T8">
-        <v>0.007688084431420153</v>
+        <v>0.0006855300434663345</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9961713333333333</v>
+        <v>0.669968</v>
       </c>
       <c r="H9">
-        <v>2.988514</v>
+        <v>2.009904</v>
       </c>
       <c r="I9">
-        <v>0.04126127327675105</v>
+        <v>0.03358468352994624</v>
       </c>
       <c r="J9">
-        <v>0.04126127327675105</v>
+        <v>0.03358468352994624</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,25 +989,25 @@
         <v>0.2780386666666667</v>
       </c>
       <c r="N9">
-        <v>0.834116</v>
+        <v>0.8341160000000001</v>
       </c>
       <c r="O9">
-        <v>0.1632373009158609</v>
+        <v>0.100247073468963</v>
       </c>
       <c r="P9">
-        <v>0.1632373009158609</v>
+        <v>0.1002470734689629</v>
       </c>
       <c r="Q9">
-        <v>0.2769741492915556</v>
+        <v>0.1862770094293334</v>
       </c>
       <c r="R9">
-        <v>2.492767343624</v>
+        <v>1.676493084864</v>
       </c>
       <c r="S9">
-        <v>0.006735378882048582</v>
+        <v>0.003366766237258391</v>
       </c>
       <c r="T9">
-        <v>0.00673537888204858</v>
+        <v>0.003366766237258391</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9961713333333333</v>
+        <v>0.669968</v>
       </c>
       <c r="H10">
-        <v>2.988514</v>
+        <v>2.009904</v>
       </c>
       <c r="I10">
-        <v>0.04126127327675105</v>
+        <v>0.03358468352994624</v>
       </c>
       <c r="J10">
-        <v>0.04126127327675105</v>
+        <v>0.03358468352994624</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.107873666666667</v>
+        <v>2.438882</v>
       </c>
       <c r="N10">
-        <v>3.323621</v>
+        <v>7.316646</v>
       </c>
       <c r="O10">
-        <v>0.6504358162501074</v>
+        <v>0.8793409419174237</v>
       </c>
       <c r="P10">
-        <v>0.6504358162501074</v>
+        <v>0.8793409419174237</v>
       </c>
       <c r="Q10">
-        <v>1.103631987688222</v>
+        <v>1.633972895776</v>
       </c>
       <c r="R10">
-        <v>9.932687889194</v>
+        <v>14.705756061984</v>
       </c>
       <c r="S10">
-        <v>0.02683780996328232</v>
+        <v>0.02953238724922151</v>
       </c>
       <c r="T10">
-        <v>0.02683780996328231</v>
+        <v>0.02953238724922152</v>
       </c>
     </row>
   </sheetData>
